--- a/dynare/variables.xlsx
+++ b/dynare/variables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gdrive\masterthesis\dynare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB16DE92-8C30-4A41-ACA1-15C1A2EA5444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97B1B26-4C1A-434D-A1EF-DF05A15003E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="830" activeTab="2" xr2:uid="{76612DB1-5CE2-4983-912A-73F1BEE8CED7}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="830" activeTab="2" xr2:uid="{76612DB1-5CE2-4983-912A-73F1BEE8CED7}"/>
   </bookViews>
   <sheets>
     <sheet name="ENDOGENOUS VARIABLES" sheetId="1" r:id="rId1"/>
-    <sheet name="LOCAL VARIABLES" sheetId="4" r:id="rId2"/>
+    <sheet name="LOCAL VARIABLES" sheetId="6" r:id="rId2"/>
     <sheet name="PARAMETERS" sheetId="5" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="236">
   <si>
     <t>\hat{Y}</t>
   </si>
@@ -657,6 +658,84 @@
   </si>
   <si>
     <t>0.25</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R_K</t>
+  </si>
+  <si>
+    <t>\Lambda</t>
+  </si>
+  <si>
+    <t>a_{1}</t>
+  </si>
+  <si>
+    <t>a_{2}</t>
+  </si>
+  <si>
+    <t>b_{1}</t>
+  </si>
+  <si>
+    <t>b_{2}</t>
+  </si>
+  <si>
+    <t>Y_{1}</t>
+  </si>
+  <si>
+    <t>Y_{2}</t>
+  </si>
+  <si>
+    <t>I_{1}</t>
+  </si>
+  <si>
+    <t>I_{2}</t>
+  </si>
+  <si>
+    <t>C_{1}</t>
+  </si>
+  <si>
+    <t>C_{2}</t>
+  </si>
+  <si>
+    <t>E[]</t>
+  </si>
+  <si>
+    <t>C_{1 1}</t>
+  </si>
+  <si>
+    <t>C_{2 1}</t>
+  </si>
+  <si>
+    <t>C_{1 2}</t>
+  </si>
+  <si>
+    <t>C_{2 2}</t>
+  </si>
+  <si>
+    <t>K_{1}</t>
+  </si>
+  <si>
+    <t>K_{2}</t>
+  </si>
+  <si>
+    <t>L_{1}</t>
+  </si>
+  <si>
+    <t>L_{2}</t>
+  </si>
+  <si>
+    <t>P_{}</t>
+  </si>
+  <si>
+    <t>Z_{A1}</t>
+  </si>
+  <si>
+    <t>Z_{A2}</t>
+  </si>
+  <si>
+    <t>varp</t>
   </si>
 </sst>
 </file>
@@ -680,7 +759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,6 +769,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,13 +791,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76EEB00-E7E0-4408-82BA-E2BE1AE68657}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:XFD33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -1042,7 +1136,8 @@
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" hidden="1"/>
+    <col min="7" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,499 +1815,615 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FFC7C1-234E-4E81-AF87-ACB37DC53788}">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815C6225-09C3-4A49-8721-A9E6FA791D34}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="str">
-        <f>CONCATENATE(B2,"ss")</f>
+      <c r="E2" t="str">
+        <f>CONCATENATE(D2,"ss")</f>
         <v>Pss</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C32" si="0">CONCATENATE(B3,"ss")</f>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E32" si="0">CONCATENATE(D3,"ss")</f>
         <v>ZA1ss</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>ZA2ss</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3"/>
+      <c r="D5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>ZMss</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>122</v>
       </c>
-      <c r="C6" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>piss</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>pi1ss</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>123</v>
       </c>
-      <c r="C8" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>pi2ss</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>Rss</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" t="s">
         <v>100</v>
       </c>
-      <c r="C10" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>RKss</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" t="s">
         <v>101</v>
       </c>
-      <c r="C11" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>LAMBDAss</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>Wss</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" t="s">
         <v>102</v>
       </c>
-      <c r="C13" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>a1ss</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>a2ss</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" t="s">
         <v>104</v>
       </c>
-      <c r="C15" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>b1ss</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>b2ss</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" t="s">
         <v>106</v>
       </c>
-      <c r="C17" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>Y1ss</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" t="s">
         <v>107</v>
       </c>
-      <c r="C18" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>Y2ss</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>I1ss</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" t="s">
         <v>109</v>
       </c>
-      <c r="C20" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>I2ss</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" t="s">
         <v>110</v>
       </c>
-      <c r="C21" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>C1ss</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" t="s">
         <v>111</v>
       </c>
-      <c r="C22" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>C2ss</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>E1ss</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="C24" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>E2ss</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" t="s">
         <v>113</v>
       </c>
-      <c r="C25" t="str">
+      <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>C11ss</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" t="s">
         <v>114</v>
       </c>
-      <c r="C26" t="str">
+      <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>C21ss</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>C21ss</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>C12ss</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="str">
+      <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>C22ss</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>K1ss</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>K2ss</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="str">
+      <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>L1ss</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>L2ss</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2221,7 +2432,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2788,7 +2999,7 @@
         <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
         <v>167</v>
@@ -2798,11 +3009,11 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>var ${\varphi}$ (long_name='marginal disutility of labor supply')</v>
+        <v>varp ${\varphi}$ (long_name='marginal disutility of labor supply')</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>var = 1.5 ; % marginal disutility of labor supply</v>
+        <v>varp = 1.5 ; % marginal disutility of labor supply</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>98</v>
@@ -2911,4 +3122,203 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D623BB0-3BA8-4F74-8C35-AB9B83BCB1B4}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/dynare/variables.xlsx
+++ b/dynare/variables.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gdrive\masterthesis\dynare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97B1B26-4C1A-434D-A1EF-DF05A15003E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D9CE09-441C-452C-8402-B570D3FF19BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="830" activeTab="2" xr2:uid="{76612DB1-5CE2-4983-912A-73F1BEE8CED7}"/>
   </bookViews>
   <sheets>
-    <sheet name="ENDOGENOUS VARIABLES" sheetId="1" r:id="rId1"/>
-    <sheet name="LOCAL VARIABLES" sheetId="6" r:id="rId2"/>
-    <sheet name="PARAMETERS" sheetId="5" r:id="rId3"/>
+    <sheet name="endogenous variables" sheetId="1" r:id="rId1"/>
+    <sheet name="local variables" sheetId="6" r:id="rId2"/>
+    <sheet name="parameters" sheetId="5" r:id="rId3"/>
     <sheet name="Planilha2" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="270">
   <si>
     <t>\hat{Y}</t>
   </si>
@@ -498,9 +498,6 @@
     <t>price stickiness parameter</t>
   </si>
   <si>
-    <t>weight of region 1 production in total production</t>
-  </si>
-  <si>
     <t>weight of good 1 in demand of region 1</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
     <t>weight of good 2 in demand of region 2</t>
   </si>
   <si>
-    <t>weight of price level 1 in national price level</t>
-  </si>
-  <si>
     <t>autoregressive parameter of productivity in region 1</t>
   </si>
   <si>
@@ -699,9 +693,6 @@
     <t>C_{2}</t>
   </si>
   <si>
-    <t>E[]</t>
-  </si>
-  <si>
     <t>C_{1 1}</t>
   </si>
   <si>
@@ -732,10 +723,121 @@
     <t>Z_{A1}</t>
   </si>
   <si>
-    <t>Z_{A2}</t>
-  </si>
-  <si>
     <t>varp</t>
+  </si>
+  <si>
+    <t>E_{1}</t>
+  </si>
+  <si>
+    <t>E_{2}</t>
+  </si>
+  <si>
+    <t>\alpha</t>
+  </si>
+  <si>
+    <t>alp</t>
+  </si>
+  <si>
+    <t>capital elasticity of production</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>Pss = 1;</t>
+  </si>
+  <si>
+    <t>ZA1ss = 1;</t>
+  </si>
+  <si>
+    <t>ZA2ss = 1;</t>
+  </si>
+  <si>
+    <t>Rss = 1/bet - 1;</t>
+  </si>
+  <si>
+    <t>RKss = Pss * (1/bet - (1-del));</t>
+  </si>
+  <si>
+    <t>LAMBDAss = Pss * (psi-1)/psi;</t>
+  </si>
+  <si>
+    <t>Wss = (1 - alp1) * (LAMBDAss * ZA1ss * (alp1/RKss)^alp1)^(1/(1 - alp1));</t>
+  </si>
+  <si>
+    <t>W2ss = (1 - alp2) * (LAMBDAss * ZA2ss * (alp2/RKss)^alp2)^(1/(1 - alp2));</t>
+  </si>
+  <si>
+    <t>a1ss = ((Wss^(1 + varp) * ome11^(ome11) * (1 - ome11)^(1 - ome11)) / (phi * Pss * (1 - alp1) * LAMBDAss)^varp)^(1/sig);</t>
+  </si>
+  <si>
+    <t>a2ss = ((Wss^(1 + varp) * ome21^(ome21) * (1 - ome21)^(1 - ome21)) / (phi * Pss * (1 - alp2) * LAMBDAss)^varp)^(1/sig);</t>
+  </si>
+  <si>
+    <t>b1ss = del * alp1 * LAMBDAss / RKss;</t>
+  </si>
+  <si>
+    <t>b2ss = del * alp2 * LAMBDAss / RKss;</t>
+  </si>
+  <si>
+    <t>Y1ss = ((a1ss / (1 - b1ss)) * (1 / (ome11^ome11 * (1 - ome11)^(1 - ome11))))^(sig / (sig + varp));</t>
+  </si>
+  <si>
+    <t>Y2ss = ((a2ss / (1 - b2ss)) * (1 / (ome21^ome21 * (1 - ome21)^(1 - ome21))))^(sig / (sig + varp));</t>
+  </si>
+  <si>
+    <t>I1ss = b1ss * Y1ss;</t>
+  </si>
+  <si>
+    <t>I2ss = b2ss * Y2ss;</t>
+  </si>
+  <si>
+    <t>C1ss = a1ss * Y1ss^(-varp / sig);</t>
+  </si>
+  <si>
+    <t>C2ss = a2ss * Y2ss^(-varp / sig);</t>
+  </si>
+  <si>
+    <t>E1ss = Pss * C1ss / (ome11^ome11 * (1 - ome11)^(1 - ome11));</t>
+  </si>
+  <si>
+    <t>E2ss = Pss * C2ss / (ome21^ome21 * (1 - ome21)^(1 - ome21));</t>
+  </si>
+  <si>
+    <t>C11ss = E1ss * ome11 / Pss;</t>
+  </si>
+  <si>
+    <t>C21ss = E2ss * ome21 / Pss;</t>
+  </si>
+  <si>
+    <t>C12ss = E1ss * (1 - ome11) / Pss;</t>
+  </si>
+  <si>
+    <t>C22ss = E2ss * (1 - ome21) / Pss;</t>
+  </si>
+  <si>
+    <t>K1ss = alp1 * Y1ss * LAMBDAss / RKss;</t>
+  </si>
+  <si>
+    <t>K2ss = alp2 * Y2ss * LAMBDAss / RKss;</t>
+  </si>
+  <si>
+    <t>L1ss = (1 - alp1) * Y1ss * LAMBDAss / Wss;</t>
+  </si>
+  <si>
+    <t>L2ss = (1 - alp2) * Y2ss * LAMBDAss / Wss;</t>
+  </si>
+  <si>
+    <t>\theta_PY1</t>
+  </si>
+  <si>
+    <t>thePY1</t>
+  </si>
+  <si>
+    <t>weight of region 1 in total production</t>
+  </si>
+  <si>
+    <t>weight of region 1 in gross domestic product</t>
   </si>
 </sst>
 </file>
@@ -774,12 +876,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -787,27 +889,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76EEB00-E7E0-4408-82BA-E2BE1AE68657}">
-  <dimension ref="A1:XFD33"/>
+  <dimension ref="A1:XFC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,14 +1269,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1818,603 +1946,652 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815C6225-09C3-4A49-8721-A9E6FA791D34}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.140625" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="10" t="str">
         <f>CONCATENATE(D2,"ss")</f>
         <v>Pss</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="10" t="str">
         <f t="shared" ref="E3:E32" si="0">CONCATENATE(D3,"ss")</f>
         <v>ZA1ss</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ZA2ss</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="D5" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ZMss</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>piss</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>pi1ss</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>pi2ss</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Rss</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>RKss</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LAMBDAss</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Wss</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>RKss</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5" t="s">
+      <c r="D13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>a1ss</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>LAMBDAss</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>Wss</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>a2ss</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>a1ss</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>b1ss</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>a2ss</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>b2ss</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>b1ss</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y1ss</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>b2ss</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Y2ss</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>Y1ss</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>I1ss</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>Y2ss</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>I2ss</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>I1ss</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>C1ss</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>I2ss</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="D22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>C2ss</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>E1ss</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>E2ss</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>C1ss</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="D25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>C11ss</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>C2ss</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="D26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>C21ss</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>E1ss</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>E2ss</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="D27" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>C12ss</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>C11ss</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>C22ss</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>C21ss</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="D29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K1ss</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D27" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>C12ss</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="5" t="s">
+      <c r="D30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K2ss</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>C22ss</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="5" t="s">
+      <c r="D31" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>L1ss</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>K1ss</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>K2ss</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>L1ss</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>L2ss</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="F32" s="6"/>
+      <c r="G32" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2429,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339B0F6-3AC3-4757-BCD5-FAA567305AEE}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2448,23 +2625,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>132</v>
@@ -2473,7 +2647,7 @@
         <v>148</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(C2," ${",B2,"}$ (long_name='",D2,"')")</f>
@@ -2488,11 +2662,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -2501,14 +2672,14 @@
         <v>149</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F24" si="0">CONCATENATE(C3," ${",B3,"}$ (long_name='",D3,"')")</f>
+        <f t="shared" ref="F3:F26" si="0">CONCATENATE(C3," ${",B3,"}$ (long_name='",D3,"')")</f>
         <v>alp2 ${\alpha_2}$ (long_name='capital elasticity of production in region 2')</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G24" si="1">CONCATENATE(C3," = ",E3," ; % ",D3)</f>
+        <f t="shared" ref="G3:G26" si="1">CONCATENATE(C3," = ",E3," ; % ",D3)</f>
         <v>alp2 = 0.2 ; % capital elasticity of production in region 2</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2517,222 +2688,222 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4" si="2">CONCATENATE(C4," ${",B4,"}$ (long_name='",D4,"')")</f>
+        <v>alp ${\alpha}$ (long_name='capital elasticity of production')</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4" si="3">CONCATENATE(C4," = ",E4," ; % ",D4)</f>
+        <v>alp = 0.35 ; % capital elasticity of production</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="E5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>bet ${\beta}$ (long_name='intertemporal discount factor')</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G5" t="str">
         <f t="shared" si="1"/>
         <v>bet = 0.985 ; % intertemporal discount factor</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="H5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
         <v>134</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="E6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>gamR ${\gamma_R}$ (long_name='interest-rate smoothing parameter')</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G6" t="str">
         <f t="shared" si="1"/>
         <v>gamR = 0.79 ; % interest-rate smoothing parameter</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="E7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>gampi ${\gamma_pi}$ (long_name='interest-rate sensitivity in relation to inflation')</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G7" t="str">
         <f t="shared" si="1"/>
         <v>gampi = 2.43 ; % interest-rate sensitivity in relation to inflation</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="H7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" t="s">
         <v>136</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" t="str">
+      <c r="E8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>gamY ${\gamma_Y}$ (long_name='interest-rate sensitivity in relation to product')</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G8" t="str">
         <f t="shared" si="1"/>
         <v>gamY = 0.16 ; % interest-rate sensitivity in relation to product</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
         <v>126</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" t="str">
+      <c r="E9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>del ${\delta}$ (long_name='capital depreciation rate')</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="1"/>
         <v>del = 0.025 ; % capital depreciation rate</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="H9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
         <v>127</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="E10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>the ${\theta}$ (long_name='price stickiness parameter')</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="1"/>
         <v>the = 0.8 ; % price stickiness parameter</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>theY1 ${\theta_Y1}$ (long_name='weight of region 1 production in total production')</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>theY1 = 0.6 ; % weight of region 1 production in total production</v>
-      </c>
       <c r="H10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F11:F26" si="4">CONCATENATE(C11," ${",B11,"}$ (long_name='",D11,"')")</f>
         <v>theC11 ${\theta_C11}$ (long_name='weight of good 1 in demand of region 1')</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G11:G26" si="5">CONCATENATE(C11," = ",E11," ; % ",D11)</f>
         <v>theC11 = 0.85 ; % weight of good 1 in demand of region 1</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -2741,26 +2912,26 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
         <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>theC12 ${\theta_C12}$ (long_name='weight of good 2 in demand of region 1')</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>theC12 = 0.05 ; % weight of good 2 in demand of region 1</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -2769,26 +2940,26 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
         <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>theC21 ${\theta_C21}$ (long_name='weight of good 1 in demand of region 2')</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>theC21 = 0.25 ; % weight of good 1 in demand of region 2</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -2797,26 +2968,26 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>theC22 ${\theta_C22}$ (long_name='weight of good 2 in demand of region 2')</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>theC22 = 0.7 ; % weight of good 2 in demand of region 2</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -2825,27 +2996,27 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>theP1 ${\theta_P1}$ (long_name='weight of price level 1 in national price level')</v>
+        <f t="shared" si="4"/>
+        <v>thePY1 ${\theta_PY1}$ (long_name='weight of region 1 in gross domestic product')</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>theP1 = 0.6 ; % weight of price level 1 in national price level</v>
+        <f t="shared" si="5"/>
+        <v>thePY1 = 0.6 ; % weight of region 1 in gross domestic product</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>98</v>
@@ -2853,27 +3024,27 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>rhoA1 ${\rho_A1}$ (long_name='autoregressive parameter of productivity in region 1')</v>
+        <f>CONCATENATE(C16," ${",B16,"}$ (long_name='",D16,"')")</f>
+        <v>theY1 ${\theta_Y1}$ (long_name='weight of region 1 in total production')</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>rhoA1 = 0.95 ; % autoregressive parameter of productivity in region 1</v>
+        <f>CONCATENATE(C16," = ",E16," ; % ",D16)</f>
+        <v>theY1 = 0.6 ; % weight of region 1 in total production</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>98</v>
@@ -2881,27 +3052,27 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>rhoA2 ${\rho_A2}$ (long_name='autoregressive parameter of productivity in region 2')</v>
+        <f t="shared" ref="F17:F26" si="6">CONCATENATE(C17," ${",B17,"}$ (long_name='",D17,"')")</f>
+        <v>rhoA1 ${\rho_A1}$ (long_name='autoregressive parameter of productivity in region 1')</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>rhoA2 = 0.95 ; % autoregressive parameter of productivity in region 2</v>
+        <f t="shared" ref="G17:G26" si="7">CONCATENATE(C17," = ",E17," ; % ",D17)</f>
+        <v>rhoA1 = 0.95 ; % autoregressive parameter of productivity in region 1</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>98</v>
@@ -2909,27 +3080,27 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>rhoM ${\rho_M}$ (long_name='autoregressive parameter of monetary policy')</v>
+        <f t="shared" si="6"/>
+        <v>rhoA2 ${\rho_A2}$ (long_name='autoregressive parameter of productivity in region 2')</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>rhoM = 0.9 ; % autoregressive parameter of monetary policy</v>
+        <f t="shared" si="7"/>
+        <v>rhoA2 = 0.95 ; % autoregressive parameter of productivity in region 2</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>98</v>
@@ -2937,27 +3108,27 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
+        <v>162</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>sig ${\sigma}$ (long_name='relative risk aversion coefficient')</v>
+        <f t="shared" si="6"/>
+        <v>rhoM ${\rho_M}$ (long_name='autoregressive parameter of monetary policy')</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>sig = 2 ; % relative risk aversion coefficient</v>
+        <f t="shared" si="7"/>
+        <v>rhoM = 0.9 ; % autoregressive parameter of monetary policy</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>98</v>
@@ -2965,27 +3136,27 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>phi ${\phi}$ (long_name='relative labor weight in utility')</v>
+        <f t="shared" si="6"/>
+        <v>sig ${\sigma}$ (long_name='relative risk aversion coefficient')</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>phi = 1 ; % relative labor weight in utility</v>
+        <f t="shared" si="7"/>
+        <v>sig = 2 ; % relative risk aversion coefficient</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>98</v>
@@ -2993,27 +3164,27 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>204</v>
+        <v>164</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>varp ${\varphi}$ (long_name='marginal disutility of labor supply')</v>
+        <f t="shared" si="6"/>
+        <v>phi ${\phi}$ (long_name='relative labor weight in utility')</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>varp = 1.5 ; % marginal disutility of labor supply</v>
+        <f t="shared" si="7"/>
+        <v>phi = 1 ; % relative labor weight in utility</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>98</v>
@@ -3021,27 +3192,27 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="1">
-        <v>8</v>
+        <v>165</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>psi ${\psi}$ (long_name='elasticity of substitution between intermediate goods')</v>
+        <f t="shared" si="6"/>
+        <v>varp ${\varphi}$ (long_name='marginal disutility of labor supply')</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>psi = 8 ; % elasticity of substitution between intermediate goods</v>
+        <f t="shared" si="7"/>
+        <v>varp = 1.5 ; % marginal disutility of labor supply</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>98</v>
@@ -3049,27 +3220,27 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>201</v>
+        <v>166</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>ome11 ${\omega_11}$ (long_name='weight of good 1 in consumption composition of region 1')</v>
+        <f t="shared" si="6"/>
+        <v>psi ${\psi}$ (long_name='elasticity of substitution between intermediate goods')</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>ome11 = 0.8 ; % weight of good 1 in consumption composition of region 1</v>
+        <f t="shared" si="7"/>
+        <v>psi = 8 ; % elasticity of substitution between intermediate goods</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>98</v>
@@ -3077,43 +3248,72 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="6"/>
+        <v>ome11 ${\omega_11}$ (long_name='weight of good 1 in consumption composition of region 1')</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="7"/>
+        <v>ome11 = 0.8 ; % weight of good 1 in consumption composition of region 1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" t="s">
         <v>147</v>
       </c>
-      <c r="D24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
+      <c r="D25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="6"/>
         <v>ome21 ${\omega_21}$ (long_name='weight of good 1 in consumption composition of region 2')</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
+      <c r="G25" t="str">
+        <f t="shared" si="7"/>
         <v>ome21 = 0.7 ; % weight of good 1 in consumption composition of region 2</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25"/>
+      <c r="H25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3126,199 +3326,406 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D623BB0-3BA8-4F74-8C35-AB9B83BCB1B4}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" t="str">
+        <f>CONCATENATE("#",E1)</f>
+        <v>#Pss = 1;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F28" si="0">CONCATENATE("#",E2)</f>
+        <v>#ZA1ss = 1;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>#ZA2ss = 1;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>#Rss = 1/bet - 1;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>#RKss = Pss * (1/bet - (1-del));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>#LAMBDAss = Pss * (psi-1)/psi;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>#Wss = (1 - alp1) * (LAMBDAss * ZA1ss * (alp1/RKss)^alp1)^(1/(1 - alp1));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>#W2ss = (1 - alp2) * (LAMBDAss * ZA2ss * (alp2/RKss)^alp2)^(1/(1 - alp2));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>#a1ss = ((Wss^(1 + varp) * ome11^(ome11) * (1 - ome11)^(1 - ome11)) / (phi * Pss * (1 - alp1) * LAMBDAss)^varp)^(1/sig);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>#a2ss = ((Wss^(1 + varp) * ome21^(ome21) * (1 - ome21)^(1 - ome21)) / (phi * Pss * (1 - alp2) * LAMBDAss)^varp)^(1/sig);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>#b1ss = del * alp1 * LAMBDAss / RKss;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>#b2ss = del * alp2 * LAMBDAss / RKss;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>#Y1ss = ((a1ss / (1 - b1ss)) * (1 / (ome11^ome11 * (1 - ome11)^(1 - ome11))))^(sig / (sig + varp));</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>#Y2ss = ((a2ss / (1 - b2ss)) * (1 / (ome21^ome21 * (1 - ome21)^(1 - ome21))))^(sig / (sig + varp));</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>#I1ss = b1ss * Y1ss;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>#I2ss = b2ss * Y2ss;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>#C1ss = a1ss * Y1ss^(-varp / sig);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>#C2ss = a2ss * Y2ss^(-varp / sig);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>#E1ss = Pss * C1ss / (ome11^ome11 * (1 - ome11)^(1 - ome11));</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>#E2ss = Pss * C2ss / (ome21^ome21 * (1 - ome21)^(1 - ome21));</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>#C11ss = E1ss * ome11 / Pss;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>#C21ss = E2ss * ome21 / Pss;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
         <v>147</v>
       </c>
+      <c r="E23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>#C12ss = E1ss * (1 - ome11) / Pss;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>#C22ss = E2ss * (1 - ome21) / Pss;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>#K1ss = alp1 * Y1ss * LAMBDAss / RKss;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>#K2ss = alp2 * Y2ss * LAMBDAss / RKss;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>#L1ss = (1 - alp1) * Y1ss * LAMBDAss / Wss;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>#L2ss = (1 - alp2) * Y2ss * LAMBDAss / Wss;</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dynare/variables.xlsx
+++ b/dynare/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gdrive\masterthesis\dynare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD759BF8-86AF-4F30-A6D8-0425B491B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73653811-86F0-44E5-8321-C495194A027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="830" activeTab="2" xr2:uid="{76612DB1-5CE2-4983-912A-73F1BEE8CED7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="400">
   <si>
     <t>\hat{Y}</t>
   </si>
@@ -1517,6 +1517,9 @@
   </si>
   <si>
     <t>pssi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1625,18 +1628,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1951,7 +1954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76EEB00-E7E0-4408-82BA-E2BE1AE68657}">
-  <dimension ref="A1:XFD33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
@@ -1970,15 +1973,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -2787,26 +2790,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2822,7 +2825,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>CONCATENATE(D2,"ss")</f>
+        <f t="shared" ref="E2:E32" si="0">CONCATENATE(D2,"ss")</f>
         <v>Pss</v>
       </c>
       <c r="F2" s="4">
@@ -2847,7 +2850,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>CONCATENATE(D3,"ss")</f>
+        <f t="shared" si="0"/>
         <v>ZA1ss</v>
       </c>
       <c r="F3" s="4">
@@ -2872,7 +2875,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>CONCATENATE(D4,"ss")</f>
+        <f t="shared" si="0"/>
         <v>Rss</v>
       </c>
       <c r="F4" s="4">
@@ -2897,7 +2900,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>CONCATENATE(D5,"ss")</f>
+        <f t="shared" si="0"/>
         <v>RKss</v>
       </c>
       <c r="F5" s="4">
@@ -2922,7 +2925,7 @@
         <v>101</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>CONCATENATE(D6,"ss")</f>
+        <f t="shared" si="0"/>
         <v>LAMBDAss</v>
       </c>
       <c r="F6" s="4">
@@ -2947,7 +2950,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>CONCATENATE(D7,"ss")</f>
+        <f t="shared" si="0"/>
         <v>Wss</v>
       </c>
       <c r="F7" s="4">
@@ -2972,7 +2975,7 @@
         <v>102</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>CONCATENATE(D8,"ss")</f>
+        <f t="shared" si="0"/>
         <v>a1ss</v>
       </c>
       <c r="F8" s="4">
@@ -2997,7 +3000,7 @@
         <v>103</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>CONCATENATE(D9,"ss")</f>
+        <f t="shared" si="0"/>
         <v>a2ss</v>
       </c>
       <c r="F9" s="4">
@@ -3022,7 +3025,7 @@
         <v>104</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>CONCATENATE(D10,"ss")</f>
+        <f t="shared" si="0"/>
         <v>b1ss</v>
       </c>
       <c r="F10" s="4">
@@ -3047,7 +3050,7 @@
         <v>105</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>CONCATENATE(D11,"ss")</f>
+        <f t="shared" si="0"/>
         <v>b2ss</v>
       </c>
       <c r="F11" s="4">
@@ -3072,7 +3075,7 @@
         <v>106</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>CONCATENATE(D12,"ss")</f>
+        <f t="shared" si="0"/>
         <v>Y1ss</v>
       </c>
       <c r="F12" s="4">
@@ -3097,7 +3100,7 @@
         <v>107</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f>CONCATENATE(D13,"ss")</f>
+        <f t="shared" si="0"/>
         <v>Y2ss</v>
       </c>
       <c r="F13" s="4">
@@ -3122,7 +3125,7 @@
         <v>108</v>
       </c>
       <c r="E14" s="7" t="str">
-        <f>CONCATENATE(D14,"ss")</f>
+        <f t="shared" si="0"/>
         <v>I1ss</v>
       </c>
       <c r="F14" s="4">
@@ -3147,7 +3150,7 @@
         <v>109</v>
       </c>
       <c r="E15" s="7" t="str">
-        <f>CONCATENATE(D15,"ss")</f>
+        <f t="shared" si="0"/>
         <v>I2ss</v>
       </c>
       <c r="F15" s="4">
@@ -3172,7 +3175,7 @@
         <v>110</v>
       </c>
       <c r="E16" s="7" t="str">
-        <f>CONCATENATE(D16,"ss")</f>
+        <f t="shared" si="0"/>
         <v>C1ss</v>
       </c>
       <c r="F16" s="4">
@@ -3197,7 +3200,7 @@
         <v>111</v>
       </c>
       <c r="E17" s="7" t="str">
-        <f>CONCATENATE(D17,"ss")</f>
+        <f t="shared" si="0"/>
         <v>C2ss</v>
       </c>
       <c r="F17" s="4">
@@ -3222,7 +3225,7 @@
         <v>51</v>
       </c>
       <c r="E18" s="7" t="str">
-        <f>CONCATENATE(D18,"ss")</f>
+        <f t="shared" si="0"/>
         <v>E1ss</v>
       </c>
       <c r="F18" s="4">
@@ -3247,7 +3250,7 @@
         <v>112</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f>CONCATENATE(D19,"ss")</f>
+        <f t="shared" si="0"/>
         <v>E2ss</v>
       </c>
       <c r="F19" s="4">
@@ -3272,7 +3275,7 @@
         <v>113</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f>CONCATENATE(D20,"ss")</f>
+        <f t="shared" si="0"/>
         <v>C11ss</v>
       </c>
       <c r="F20" s="4">
@@ -3297,7 +3300,7 @@
         <v>114</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f>CONCATENATE(D21,"ss")</f>
+        <f t="shared" si="0"/>
         <v>C21ss</v>
       </c>
       <c r="F21" s="4">
@@ -3322,7 +3325,7 @@
         <v>172</v>
       </c>
       <c r="E22" s="7" t="str">
-        <f>CONCATENATE(D22,"ss")</f>
+        <f t="shared" si="0"/>
         <v>C12ss</v>
       </c>
       <c r="F22" s="4">
@@ -3347,7 +3350,7 @@
         <v>115</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f>CONCATENATE(D23,"ss")</f>
+        <f t="shared" si="0"/>
         <v>C22ss</v>
       </c>
       <c r="F23" s="4">
@@ -3372,7 +3375,7 @@
         <v>116</v>
       </c>
       <c r="E24" s="7" t="str">
-        <f>CONCATENATE(D24,"ss")</f>
+        <f t="shared" si="0"/>
         <v>K1ss</v>
       </c>
       <c r="F24" s="4">
@@ -3397,7 +3400,7 @@
         <v>117</v>
       </c>
       <c r="E25" s="7" t="str">
-        <f>CONCATENATE(D25,"ss")</f>
+        <f t="shared" si="0"/>
         <v>K2ss</v>
       </c>
       <c r="F25" s="4">
@@ -3422,7 +3425,7 @@
         <v>118</v>
       </c>
       <c r="E26" s="7" t="str">
-        <f>CONCATENATE(D26,"ss")</f>
+        <f t="shared" si="0"/>
         <v>L1ss</v>
       </c>
       <c r="F26" s="4">
@@ -3447,7 +3450,7 @@
         <v>119</v>
       </c>
       <c r="E27" s="7" t="str">
-        <f>CONCATENATE(D27,"ss")</f>
+        <f t="shared" si="0"/>
         <v>L2ss</v>
       </c>
       <c r="F27" s="4">
@@ -3470,7 +3473,7 @@
         <v>50</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f>CONCATENATE(D28,"ss")</f>
+        <f t="shared" si="0"/>
         <v>ZA2ss</v>
       </c>
       <c r="F28" s="4">
@@ -3491,7 +3494,7 @@
         <v>99</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f>CONCATENATE(D29,"ss")</f>
+        <f t="shared" si="0"/>
         <v>ZMss</v>
       </c>
       <c r="F29" s="4">
@@ -3512,7 +3515,7 @@
         <v>121</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f>CONCATENATE(D30,"ss")</f>
+        <f t="shared" si="0"/>
         <v>piss</v>
       </c>
       <c r="F30" s="4">
@@ -3533,7 +3536,7 @@
         <v>61</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f>CONCATENATE(D31,"ss")</f>
+        <f t="shared" si="0"/>
         <v>pi1ss</v>
       </c>
       <c r="F31" s="4">
@@ -3554,7 +3557,7 @@
         <v>122</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f>CONCATENATE(D32,"ss")</f>
+        <f t="shared" si="0"/>
         <v>pi2ss</v>
       </c>
       <c r="F32" s="4">
@@ -3582,7 +3585,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3599,84 +3602,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="F2" s="12" t="str">
         <f>CONCATENATE(C2," ${",B2,"}$ (long_name='",D2,"')")</f>
         <v>alp1 ${\alpha_{1}}$ (long_name='capital elasticity of production in region 1')</v>
       </c>
-      <c r="G2" s="13" t="str">
+      <c r="G2" s="12" t="str">
         <f>CONCATENATE(C2," = ",E2," ; % ",D2)</f>
         <v>alp1 = 0.4 ; % capital elasticity of production in region 1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="11">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="13" t="str">
+      <c r="F3" s="12" t="str">
         <f t="shared" ref="F3:F10" si="0">CONCATENATE(C3," ${",B3,"}$ (long_name='",D3,"')")</f>
         <v>alp2 ${\alpha_{2}}$ (long_name='capital elasticity of production in region 2')</v>
       </c>
-      <c r="G3" s="13" t="str">
+      <c r="G3" s="12" t="str">
         <f t="shared" ref="G3:G10" si="1">CONCATENATE(C3," = ",E3," ; % ",D3)</f>
         <v>alp2 = 0.2 ; % capital elasticity of production in region 2</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4305,6 +4308,9 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>204</v>
+      </c>
+      <c r="F28" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5153,7 +5159,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E096120-53AF-4081-A728-58B7EAFC84DC}">
-  <dimension ref="B1:D68"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
@@ -5746,132 +5752,132 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>356</v>
       </c>
     </row>
